--- a/SI/eval 2/ud4/ejercicio 1.xlsx
+++ b/SI/eval 2/ud4/ejercicio 1.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F688D3A9-CEA0-4C27-ABEC-3D9F255B5AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D12562-0F8E-4563-BB96-0CE8E9FD53FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="19">
   <si>
     <t>FIFO</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>SJF(EX)</t>
+  </si>
+  <si>
+    <t>LIFO</t>
+  </si>
+  <si>
+    <t>TRetornoMedio=</t>
   </si>
 </sst>
 </file>
@@ -214,25 +220,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -274,79 +267,112 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -651,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AJ37"/>
+  <dimension ref="B1:AJ51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,1152 +701,1564 @@
       </c>
     </row>
     <row r="2" spans="2:36" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="B2" s="13"/>
-      <c r="H2" s="12" t="s">
+      <c r="B2" s="9"/>
+      <c r="H2" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="20">
+      <c r="J4" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="27">
         <v>0</v>
       </c>
-      <c r="L4" s="21">
-        <v>1</v>
-      </c>
-      <c r="M4" s="21">
+      <c r="L4" s="28">
+        <v>1</v>
+      </c>
+      <c r="M4" s="28">
         <v>2</v>
       </c>
-      <c r="N4" s="21">
+      <c r="N4" s="28">
         <v>3</v>
       </c>
-      <c r="O4" s="21">
+      <c r="O4" s="28">
         <v>4</v>
       </c>
-      <c r="P4" s="21">
+      <c r="P4" s="28">
         <v>5</v>
       </c>
-      <c r="Q4" s="21">
+      <c r="Q4" s="28">
         <v>6</v>
       </c>
-      <c r="R4" s="21">
+      <c r="R4" s="28">
         <v>7</v>
       </c>
-      <c r="S4" s="21">
+      <c r="S4" s="28">
         <v>8</v>
       </c>
-      <c r="T4" s="21">
+      <c r="T4" s="28">
         <v>9</v>
       </c>
-      <c r="U4" s="21">
+      <c r="U4" s="28">
         <v>10</v>
       </c>
-      <c r="V4" s="21">
+      <c r="V4" s="28">
         <v>11</v>
       </c>
-      <c r="W4" s="21">
+      <c r="W4" s="28">
         <v>12</v>
       </c>
-      <c r="X4" s="21">
+      <c r="X4" s="28">
         <v>13</v>
       </c>
-      <c r="Y4" s="21">
+      <c r="Y4" s="28">
         <v>14</v>
       </c>
-      <c r="Z4" s="21">
+      <c r="Z4" s="28">
         <v>15</v>
       </c>
-      <c r="AA4" s="21">
+      <c r="AA4" s="28">
         <v>16</v>
       </c>
-      <c r="AB4" s="21">
+      <c r="AB4" s="28">
         <v>17</v>
       </c>
-      <c r="AC4" s="21">
+      <c r="AC4" s="28">
         <v>18</v>
       </c>
-      <c r="AD4" s="21">
+      <c r="AD4" s="28">
         <v>19</v>
       </c>
-      <c r="AE4" s="21">
+      <c r="AE4" s="28">
         <v>20</v>
       </c>
-      <c r="AF4" s="21">
+      <c r="AF4" s="28">
         <v>21</v>
       </c>
-      <c r="AG4" s="21">
+      <c r="AG4" s="28">
         <v>22</v>
       </c>
-      <c r="AH4" s="21">
+      <c r="AH4" s="28">
         <v>23</v>
       </c>
-      <c r="AI4" s="21">
+      <c r="AI4" s="28">
         <v>24</v>
       </c>
-      <c r="AJ4" s="21">
+      <c r="AJ4" s="28">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="1">
         <v>5</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="2">
         <v>0</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="3">
         <v>5</v>
       </c>
-      <c r="G5" s="4">
-        <v>1</v>
-      </c>
-      <c r="J5" s="22" t="s">
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="25" t="s">
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="25"/>
-      <c r="Z5" s="25"/>
-      <c r="AA5" s="25"/>
-      <c r="AB5" s="25"/>
-      <c r="AC5" s="18"/>
-      <c r="AD5" s="18"/>
-      <c r="AE5" s="18"/>
-      <c r="AF5" s="25"/>
-      <c r="AG5" s="25"/>
-      <c r="AH5" s="25"/>
-      <c r="AI5" s="25"/>
-      <c r="AJ5" s="25"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="17"/>
+      <c r="AG5" s="17"/>
+      <c r="AH5" s="17"/>
+      <c r="AI5" s="17"/>
+      <c r="AJ5" s="17"/>
     </row>
     <row r="6" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
         <v>3</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="2">
         <v>4</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="3">
         <v>7</v>
       </c>
-      <c r="G6" s="4">
-        <v>1</v>
-      </c>
-      <c r="J6" s="22" t="s">
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="18" t="s">
+      <c r="K6" s="13"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="18"/>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="18"/>
-      <c r="AD6" s="18"/>
-      <c r="AE6" s="18"/>
-      <c r="AF6" s="18"/>
-      <c r="AG6" s="18"/>
-      <c r="AH6" s="18"/>
-      <c r="AI6" s="18"/>
-      <c r="AJ6" s="18"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
     </row>
     <row r="7" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="1">
         <v>2</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="2">
         <v>6</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="3">
         <v>8</v>
       </c>
-      <c r="G7" s="4">
-        <v>1</v>
-      </c>
-      <c r="J7" s="22" t="s">
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="18" t="s">
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="18"/>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="18"/>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="18"/>
-      <c r="AF7" s="18"/>
-      <c r="AG7" s="18"/>
-      <c r="AH7" s="18"/>
-      <c r="AI7" s="18"/>
-      <c r="AJ7" s="18"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="13"/>
+      <c r="AI7" s="13"/>
+      <c r="AJ7" s="13"/>
     </row>
     <row r="8" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="D8" s="4">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
         <v>7</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="3">
         <v>8</v>
       </c>
-      <c r="G8" s="4">
-        <v>1</v>
-      </c>
-      <c r="J8" s="22" t="s">
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="18" t="s">
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="W8" s="18"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="18"/>
-      <c r="AA8" s="18"/>
-      <c r="AB8" s="31"/>
-      <c r="AC8" s="18"/>
-      <c r="AD8" s="18"/>
-      <c r="AE8" s="18"/>
-      <c r="AF8" s="18"/>
-      <c r="AG8" s="18"/>
-      <c r="AH8" s="18"/>
-      <c r="AI8" s="31"/>
-      <c r="AJ8" s="18"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="13"/>
+      <c r="AH8" s="13"/>
+      <c r="AI8" s="23"/>
+      <c r="AJ8" s="13"/>
     </row>
     <row r="9" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="1">
         <v>4</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="1">
         <v>2</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="2">
         <v>7</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="3">
         <v>9</v>
       </c>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
-      <c r="J9" s="22" t="s">
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="18"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="18" t="s">
+      <c r="K9" s="13"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="18"/>
-      <c r="AB9" s="18"/>
-      <c r="AC9" s="29"/>
-      <c r="AD9" s="29"/>
-      <c r="AE9" s="18"/>
-      <c r="AF9" s="18"/>
-      <c r="AG9" s="18"/>
-      <c r="AH9" s="18"/>
-      <c r="AI9" s="18"/>
-      <c r="AJ9" s="18"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13"/>
+      <c r="AI9" s="13"/>
+      <c r="AJ9" s="13"/>
     </row>
     <row r="10" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="E10" s="17"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="12" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
+      <c r="D12" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="37">
         <f>AVERAGE(E9,E8,E7,E6,E5)</f>
         <v>4.8</v>
       </c>
     </row>
+    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="D13" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="35">
+        <f>AVERAGE(F5:F9)</f>
+        <v>7.4</v>
+      </c>
+    </row>
     <row r="14" spans="2:36" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="B14" s="13"/>
-      <c r="H14" s="12" t="s">
+      <c r="B14" s="9"/>
+      <c r="H14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="12"/>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="33"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="33"/>
-      <c r="Z15" s="33"/>
-      <c r="AA15" s="33"/>
-      <c r="AB15" s="33"/>
-      <c r="AC15" s="33"/>
-      <c r="AD15" s="33"/>
-      <c r="AE15" s="33"/>
-      <c r="AF15" s="33"/>
-      <c r="AG15" s="33"/>
-      <c r="AH15" s="33"/>
-      <c r="AI15" s="33"/>
-      <c r="AJ15" s="33"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="24"/>
+      <c r="AA15" s="24"/>
+      <c r="AB15" s="24"/>
+      <c r="AC15" s="24"/>
+      <c r="AD15" s="24"/>
+      <c r="AE15" s="24"/>
+      <c r="AF15" s="24"/>
+      <c r="AG15" s="24"/>
+      <c r="AH15" s="24"/>
+      <c r="AI15" s="24"/>
+      <c r="AJ15" s="24"/>
     </row>
     <row r="16" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="B16" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K16" s="2">
+      <c r="J16" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1">
         <v>0</v>
       </c>
-      <c r="L16" s="3">
-        <v>1</v>
-      </c>
-      <c r="M16" s="3">
+      <c r="L16" s="29">
+        <v>1</v>
+      </c>
+      <c r="M16" s="29">
         <v>2</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N16" s="29">
         <v>3</v>
       </c>
-      <c r="O16" s="3">
+      <c r="O16" s="29">
         <v>4</v>
       </c>
-      <c r="P16" s="3">
+      <c r="P16" s="29">
         <v>5</v>
       </c>
-      <c r="Q16" s="21">
+      <c r="Q16" s="28">
         <v>6</v>
       </c>
-      <c r="R16" s="21">
+      <c r="R16" s="28">
         <v>7</v>
       </c>
-      <c r="S16" s="21">
+      <c r="S16" s="28">
         <v>8</v>
       </c>
-      <c r="T16" s="21">
+      <c r="T16" s="28">
         <v>9</v>
       </c>
-      <c r="U16" s="21">
+      <c r="U16" s="28">
         <v>10</v>
       </c>
-      <c r="V16" s="21">
+      <c r="V16" s="28">
         <v>11</v>
       </c>
-      <c r="W16" s="21">
+      <c r="W16" s="28">
         <v>12</v>
       </c>
-      <c r="X16" s="21">
+      <c r="X16" s="28">
         <v>13</v>
       </c>
-      <c r="Y16" s="21">
+      <c r="Y16" s="28">
         <v>14</v>
       </c>
-      <c r="Z16" s="21">
+      <c r="Z16" s="28">
         <v>15</v>
       </c>
-      <c r="AA16" s="21">
+      <c r="AA16" s="28">
         <v>16</v>
       </c>
-      <c r="AB16" s="21">
+      <c r="AB16" s="28">
         <v>17</v>
       </c>
-      <c r="AC16" s="21">
+      <c r="AC16" s="28">
         <v>18</v>
       </c>
-      <c r="AD16" s="21">
+      <c r="AD16" s="28">
         <v>19</v>
       </c>
-      <c r="AE16" s="21">
+      <c r="AE16" s="28">
         <v>20</v>
       </c>
-      <c r="AF16" s="21">
+      <c r="AF16" s="28">
         <v>21</v>
       </c>
-      <c r="AG16" s="21">
+      <c r="AG16" s="28">
         <v>22</v>
       </c>
-      <c r="AH16" s="21">
+      <c r="AH16" s="28">
         <v>23</v>
       </c>
-      <c r="AI16" s="21">
+      <c r="AI16" s="28">
         <v>24</v>
       </c>
-      <c r="AJ16" s="21">
+      <c r="AJ16" s="28">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="1">
         <v>0</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="1">
         <v>5</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="2">
         <v>0</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="3">
         <f>(E17+D17)</f>
         <v>5</v>
       </c>
-      <c r="G17" s="4">
-        <v>1</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="25" t="s">
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
-      <c r="W17" s="18"/>
-      <c r="X17" s="18"/>
-      <c r="Y17" s="25"/>
-      <c r="Z17" s="25"/>
-      <c r="AA17" s="25"/>
-      <c r="AB17" s="25"/>
-      <c r="AC17" s="18"/>
-      <c r="AD17" s="18"/>
-      <c r="AE17" s="18"/>
-      <c r="AF17" s="25"/>
-      <c r="AG17" s="25"/>
-      <c r="AH17" s="25"/>
-      <c r="AI17" s="25"/>
-      <c r="AJ17" s="25"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="13"/>
+      <c r="AE17" s="13"/>
+      <c r="AF17" s="17"/>
+      <c r="AG17" s="17"/>
+      <c r="AH17" s="17"/>
+      <c r="AI17" s="17"/>
+      <c r="AJ17" s="17"/>
     </row>
     <row r="18" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="4">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4">
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
         <v>3</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="2">
         <v>9</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="3">
         <f t="shared" ref="F18:F21" si="0">(E18+D18)</f>
         <v>12</v>
       </c>
-      <c r="G18" s="4">
-        <v>1</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K18" s="18"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="18" t="s">
+      <c r="K18" s="13"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="Y18" s="18"/>
-      <c r="Z18" s="18"/>
-      <c r="AA18" s="18"/>
-      <c r="AB18" s="18"/>
-      <c r="AC18" s="18"/>
-      <c r="AD18" s="18"/>
-      <c r="AE18" s="18"/>
-      <c r="AF18" s="18"/>
-      <c r="AG18" s="18"/>
-      <c r="AH18" s="18"/>
-      <c r="AI18" s="18"/>
-      <c r="AJ18" s="18"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="13"/>
+      <c r="AF18" s="13"/>
+      <c r="AG18" s="13"/>
+      <c r="AH18" s="13"/>
+      <c r="AI18" s="13"/>
+      <c r="AJ18" s="13"/>
     </row>
     <row r="19" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="1">
         <v>2</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="1">
         <v>2</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="2">
         <v>4</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G19" s="4">
-        <v>1</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="25" t="s">
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="T19" s="25"/>
-      <c r="U19" s="18"/>
-      <c r="V19" s="18"/>
-      <c r="W19" s="18"/>
-      <c r="X19" s="18"/>
-      <c r="Y19" s="18"/>
-      <c r="Z19" s="18"/>
-      <c r="AA19" s="18"/>
-      <c r="AB19" s="18"/>
-      <c r="AC19" s="18"/>
-      <c r="AD19" s="18"/>
-      <c r="AE19" s="18"/>
-      <c r="AF19" s="18"/>
-      <c r="AG19" s="18"/>
-      <c r="AH19" s="18"/>
-      <c r="AI19" s="18"/>
-      <c r="AJ19" s="18"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="13"/>
+      <c r="AC19" s="13"/>
+      <c r="AD19" s="13"/>
+      <c r="AE19" s="13"/>
+      <c r="AF19" s="13"/>
+      <c r="AG19" s="13"/>
+      <c r="AH19" s="13"/>
+      <c r="AI19" s="13"/>
+      <c r="AJ19" s="13"/>
     </row>
     <row r="20" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="1">
         <v>3</v>
       </c>
-      <c r="D20" s="4">
-        <v>1</v>
-      </c>
-      <c r="E20" s="5">
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
         <v>2</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G20" s="4">
-        <v>1</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="35" t="s">
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="R20" s="35"/>
-      <c r="S20" s="35"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="18"/>
-      <c r="V20" s="18"/>
-      <c r="W20" s="18"/>
-      <c r="X20" s="18"/>
-      <c r="Y20" s="18"/>
-      <c r="Z20" s="18"/>
-      <c r="AA20" s="18"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="13"/>
       <c r="AB20" s="31"/>
-      <c r="AC20" s="18"/>
-      <c r="AD20" s="18"/>
-      <c r="AE20" s="18"/>
-      <c r="AF20" s="18"/>
-      <c r="AG20" s="18"/>
-      <c r="AH20" s="18"/>
+      <c r="AC20" s="13"/>
+      <c r="AD20" s="13"/>
+      <c r="AE20" s="13"/>
+      <c r="AF20" s="13"/>
+      <c r="AG20" s="13"/>
+      <c r="AH20" s="13"/>
       <c r="AI20" s="31"/>
-      <c r="AJ20" s="18"/>
+      <c r="AJ20" s="13"/>
     </row>
     <row r="21" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="1">
         <v>4</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="1">
         <v>2</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="2">
         <v>4</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G21" s="4">
-        <v>1</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K21" s="18"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="29" t="s">
+      <c r="K21" s="13"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="V21" s="29"/>
-      <c r="W21" s="29"/>
-      <c r="X21" s="18"/>
-      <c r="Y21" s="18"/>
-      <c r="Z21" s="18"/>
-      <c r="AA21" s="18"/>
-      <c r="AB21" s="18"/>
-      <c r="AC21" s="29"/>
-      <c r="AD21" s="29"/>
-      <c r="AE21" s="18"/>
-      <c r="AF21" s="18"/>
-      <c r="AG21" s="18"/>
-      <c r="AH21" s="18"/>
-      <c r="AI21" s="18"/>
-      <c r="AJ21" s="18"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="13"/>
+      <c r="AC21" s="21"/>
+      <c r="AD21" s="21"/>
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="13"/>
+      <c r="AH21" s="13"/>
+      <c r="AI21" s="13"/>
+      <c r="AJ21" s="13"/>
     </row>
     <row r="24" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
+      <c r="D24" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="37">
         <f>AVERAGE(E17:E21)</f>
         <v>3.8</v>
       </c>
     </row>
+    <row r="25" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="D25" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="35">
+        <f>AVERAGE(F17:F21)</f>
+        <v>6.4</v>
+      </c>
+    </row>
     <row r="27" spans="2:36" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="B27" s="13"/>
-      <c r="H27" s="12" t="s">
+      <c r="B27" s="9"/>
+      <c r="H27" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="29" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="B29" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K29" s="2">
+      <c r="J29" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1">
         <v>0</v>
       </c>
-      <c r="L29" s="3">
-        <v>1</v>
-      </c>
-      <c r="M29" s="3">
+      <c r="L29" s="29">
+        <v>1</v>
+      </c>
+      <c r="M29" s="29">
         <v>2</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="29">
         <v>3</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="29">
         <v>4</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="29">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="29">
         <v>6</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="29">
         <v>7</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="29">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="29">
         <v>9</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="29">
         <v>10</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="29">
         <v>11</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="29">
         <v>12</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="29">
         <v>13</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="29">
         <v>14</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="29">
         <v>15</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AA29" s="29">
         <v>16</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AB29" s="29">
         <v>17</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AC29" s="29">
         <v>18</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AD29" s="29">
         <v>19</v>
       </c>
-      <c r="AE29" s="3">
+      <c r="AE29" s="29">
         <v>20</v>
       </c>
-      <c r="AF29" s="3">
+      <c r="AF29" s="29">
         <v>21</v>
       </c>
-      <c r="AG29" s="3">
+      <c r="AG29" s="29">
         <v>22</v>
       </c>
-      <c r="AH29" s="3">
+      <c r="AH29" s="29">
         <v>23</v>
       </c>
-      <c r="AI29" s="3">
+      <c r="AI29" s="29">
         <v>24</v>
       </c>
-      <c r="AJ29" s="3">
+      <c r="AJ29" s="29">
         <v>25</v>
       </c>
     </row>
     <row r="30" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="1">
         <v>0</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="1">
         <v>5</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="2">
         <v>8</v>
       </c>
-      <c r="F30" s="6">
-        <f>(E30+D30)</f>
+      <c r="F30" s="3">
+        <f>E30+D30</f>
         <v>13</v>
       </c>
-      <c r="G30" s="4">
-        <v>1</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K30" s="23"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="27"/>
-      <c r="S30" s="27"/>
-      <c r="T30" s="28"/>
-      <c r="U30" s="28"/>
-      <c r="V30" s="28"/>
-      <c r="W30" s="28"/>
-      <c r="X30" s="29" t="s">
+      <c r="K30" s="15"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="20"/>
+      <c r="X30" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="Y30" s="18"/>
-      <c r="Z30" s="18"/>
-      <c r="AA30" s="9"/>
-      <c r="AB30" s="9"/>
-      <c r="AC30" s="9"/>
-      <c r="AD30" s="9"/>
-      <c r="AE30" s="9"/>
-      <c r="AF30" s="10"/>
-      <c r="AG30" s="10"/>
-      <c r="AH30" s="10"/>
-      <c r="AI30" s="10"/>
-      <c r="AJ30" s="10"/>
+      <c r="Y30" s="13"/>
+      <c r="Z30" s="13"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="6"/>
+      <c r="AG30" s="6"/>
+      <c r="AH30" s="6"/>
+      <c r="AI30" s="6"/>
+      <c r="AJ30" s="6"/>
     </row>
     <row r="31" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="4">
-        <v>1</v>
-      </c>
-      <c r="D31" s="4">
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
         <v>3</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <f t="shared" ref="F31:F34" si="1">E31+D31</f>
+        <v>3</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K31" s="22"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="33"/>
+      <c r="S31" s="33"/>
+      <c r="T31" s="33"/>
+      <c r="U31" s="33"/>
+      <c r="V31" s="33"/>
+      <c r="W31" s="33"/>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="13"/>
+      <c r="Z31" s="13"/>
+      <c r="AA31" s="4"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="10"/>
+      <c r="AG31" s="10"/>
+      <c r="AH31" s="10"/>
+      <c r="AI31" s="10"/>
+      <c r="AJ31" s="10"/>
+    </row>
+    <row r="32" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2</v>
+      </c>
+      <c r="E32" s="2">
+        <v>3</v>
+      </c>
+      <c r="F32" s="3">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F31" s="6">
-        <f t="shared" ref="F31:F34" si="1">(E31+D31)</f>
-        <v>8</v>
-      </c>
-      <c r="G31" s="4">
-        <v>1</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K31" s="30"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="28"/>
-      <c r="S31" s="28"/>
-      <c r="T31" s="29" t="s">
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K32" s="22"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="U31" s="18"/>
-      <c r="V31" s="18"/>
-      <c r="W31" s="18"/>
-      <c r="X31" s="18"/>
-      <c r="Y31" s="18"/>
-      <c r="Z31" s="18"/>
-      <c r="AA31" s="8"/>
-      <c r="AB31" s="9"/>
-      <c r="AC31" s="9"/>
-      <c r="AD31" s="9"/>
-      <c r="AE31" s="9"/>
-      <c r="AF31" s="14"/>
-      <c r="AG31" s="14"/>
-      <c r="AH31" s="14"/>
-      <c r="AI31" s="14"/>
-      <c r="AJ31" s="14"/>
-    </row>
-    <row r="32" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="4">
+      <c r="S32" s="33"/>
+      <c r="T32" s="33"/>
+      <c r="U32" s="33"/>
+      <c r="V32" s="33"/>
+      <c r="W32" s="33"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="13"/>
+      <c r="Z32" s="13"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="10"/>
+      <c r="AG32" s="10"/>
+      <c r="AH32" s="10"/>
+      <c r="AI32" s="10"/>
+      <c r="AJ32" s="10"/>
+    </row>
+    <row r="33" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="1">
+        <v>3</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D32" s="4">
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K33" s="22"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q33" s="33"/>
+      <c r="R33" s="33"/>
+      <c r="S33" s="33"/>
+      <c r="T33" s="33"/>
+      <c r="U33" s="33"/>
+      <c r="V33" s="33"/>
+      <c r="W33" s="33"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="21"/>
+      <c r="Z33" s="21"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="4"/>
+      <c r="AF33" s="10"/>
+      <c r="AG33" s="10"/>
+      <c r="AH33" s="10"/>
+      <c r="AI33" s="30"/>
+      <c r="AJ33" s="10"/>
+    </row>
+    <row r="34" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="1">
+        <v>4</v>
+      </c>
+      <c r="D34" s="1">
         <v>2</v>
       </c>
-      <c r="E32" s="5">
-        <v>1</v>
-      </c>
-      <c r="F32" s="6">
+      <c r="E34" s="2">
+        <v>3</v>
+      </c>
+      <c r="F34" s="3">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="G32" s="4">
-        <v>1</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K32" s="30"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="22"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="18"/>
-      <c r="V32" s="18"/>
-      <c r="W32" s="18"/>
-      <c r="X32" s="18"/>
-      <c r="Y32" s="18"/>
-      <c r="Z32" s="18"/>
-      <c r="AA32" s="9"/>
-      <c r="AB32" s="9"/>
-      <c r="AC32" s="9"/>
-      <c r="AD32" s="9"/>
-      <c r="AE32" s="9"/>
-      <c r="AF32" s="14"/>
-      <c r="AG32" s="14"/>
-      <c r="AH32" s="14"/>
-      <c r="AI32" s="14"/>
-      <c r="AJ32" s="14"/>
-    </row>
-    <row r="33" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="4">
-        <v>3</v>
-      </c>
-      <c r="D33" s="4">
-        <v>1</v>
-      </c>
-      <c r="E33" s="5">
-        <v>0</v>
-      </c>
-      <c r="F33" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G33" s="4">
-        <v>1</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K33" s="30"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="18"/>
-      <c r="S33" s="18"/>
-      <c r="T33" s="18"/>
-      <c r="U33" s="18"/>
-      <c r="V33" s="18"/>
-      <c r="W33" s="18"/>
-      <c r="X33" s="18"/>
-      <c r="Y33" s="29"/>
-      <c r="Z33" s="29"/>
-      <c r="AA33" s="9"/>
-      <c r="AB33" s="9"/>
-      <c r="AC33" s="9"/>
-      <c r="AD33" s="9"/>
-      <c r="AE33" s="8"/>
-      <c r="AF33" s="14"/>
-      <c r="AG33" s="14"/>
-      <c r="AH33" s="14"/>
-      <c r="AI33" s="15"/>
-      <c r="AJ33" s="14"/>
-    </row>
-    <row r="34" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="4">
-        <v>4</v>
-      </c>
-      <c r="D34" s="4">
-        <v>2</v>
-      </c>
-      <c r="E34" s="5">
-        <v>1</v>
-      </c>
-      <c r="F34" s="6">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="G34" s="4">
-        <v>1</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="30"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="27"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="28"/>
-      <c r="R34" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="S34" s="18"/>
-      <c r="T34" s="18"/>
-      <c r="U34" s="18"/>
-      <c r="V34" s="18"/>
-      <c r="W34" s="18"/>
-      <c r="X34" s="18"/>
-      <c r="Y34" s="18"/>
-      <c r="Z34" s="29"/>
-      <c r="AA34" s="11"/>
-      <c r="AB34" s="11"/>
-      <c r="AC34" s="11"/>
-      <c r="AD34" s="11"/>
-      <c r="AE34" s="8"/>
-      <c r="AF34" s="8"/>
-      <c r="AG34" s="14"/>
-      <c r="AH34" s="14"/>
-      <c r="AI34" s="14"/>
-      <c r="AJ34" s="14"/>
+      <c r="U34" s="33"/>
+      <c r="V34" s="33"/>
+      <c r="W34" s="33"/>
+      <c r="X34" s="13"/>
+      <c r="Y34" s="13"/>
+      <c r="Z34" s="21"/>
+      <c r="AA34" s="7"/>
+      <c r="AB34" s="7"/>
+      <c r="AC34" s="7"/>
+      <c r="AD34" s="7"/>
+      <c r="AE34" s="4"/>
+      <c r="AF34" s="4"/>
+      <c r="AG34" s="10"/>
+      <c r="AH34" s="10"/>
+      <c r="AI34" s="10"/>
+      <c r="AJ34" s="10"/>
     </row>
     <row r="37" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="D37" t="s">
+      <c r="D37" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="37">
         <f>AVERAGE(E30:E34)</f>
         <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="D38" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="35">
+        <f>AVERAGE(F30:F34)</f>
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="40" spans="2:36" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="B40" s="9"/>
+      <c r="H40" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B42" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+      <c r="L42" s="29">
+        <v>1</v>
+      </c>
+      <c r="M42" s="29">
+        <v>2</v>
+      </c>
+      <c r="N42" s="29">
+        <v>3</v>
+      </c>
+      <c r="O42" s="29">
+        <v>4</v>
+      </c>
+      <c r="P42" s="29">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="29">
+        <v>6</v>
+      </c>
+      <c r="R42" s="29">
+        <v>7</v>
+      </c>
+      <c r="S42" s="29">
+        <v>8</v>
+      </c>
+      <c r="T42" s="29">
+        <v>9</v>
+      </c>
+      <c r="U42" s="29">
+        <v>10</v>
+      </c>
+      <c r="V42" s="29">
+        <v>11</v>
+      </c>
+      <c r="W42" s="29">
+        <v>12</v>
+      </c>
+      <c r="X42" s="29">
+        <v>13</v>
+      </c>
+      <c r="Y42" s="29">
+        <v>14</v>
+      </c>
+      <c r="Z42" s="29">
+        <v>15</v>
+      </c>
+      <c r="AA42" s="29">
+        <v>16</v>
+      </c>
+      <c r="AB42" s="29">
+        <v>17</v>
+      </c>
+      <c r="AC42" s="29">
+        <v>18</v>
+      </c>
+      <c r="AD42" s="29">
+        <v>19</v>
+      </c>
+      <c r="AE42" s="29">
+        <v>20</v>
+      </c>
+      <c r="AF42" s="29">
+        <v>21</v>
+      </c>
+      <c r="AG42" s="29">
+        <v>22</v>
+      </c>
+      <c r="AH42" s="29">
+        <v>23</v>
+      </c>
+      <c r="AI42" s="29">
+        <v>24</v>
+      </c>
+      <c r="AJ42" s="29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
+        <v>5</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <f>E43+D43</f>
+        <v>5</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K43" s="15"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q43" s="33"/>
+      <c r="R43" s="33"/>
+      <c r="S43" s="33"/>
+      <c r="T43" s="33"/>
+      <c r="U43" s="33"/>
+      <c r="V43" s="33"/>
+      <c r="W43" s="33"/>
+      <c r="X43" s="33"/>
+      <c r="Y43" s="13"/>
+      <c r="Z43" s="13"/>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="5"/>
+      <c r="AC43" s="5"/>
+      <c r="AD43" s="5"/>
+      <c r="AE43" s="5"/>
+      <c r="AF43" s="6"/>
+      <c r="AG43" s="6"/>
+      <c r="AH43" s="6"/>
+      <c r="AI43" s="6"/>
+      <c r="AJ43" s="6"/>
+    </row>
+    <row r="44" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1">
+        <v>3</v>
+      </c>
+      <c r="E44" s="2">
+        <v>9</v>
+      </c>
+      <c r="F44" s="3">
+        <f t="shared" ref="F44:F47" si="2">E44+D44</f>
+        <v>12</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K44" s="32"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="19"/>
+      <c r="S44" s="19"/>
+      <c r="T44" s="19"/>
+      <c r="U44" s="20"/>
+      <c r="V44" s="20"/>
+      <c r="W44" s="20"/>
+      <c r="X44" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y44" s="13"/>
+      <c r="Z44" s="13"/>
+      <c r="AA44" s="4"/>
+      <c r="AB44" s="5"/>
+      <c r="AC44" s="5"/>
+      <c r="AD44" s="5"/>
+      <c r="AE44" s="5"/>
+      <c r="AF44" s="10"/>
+      <c r="AG44" s="10"/>
+      <c r="AH44" s="10"/>
+      <c r="AI44" s="10"/>
+      <c r="AJ44" s="10"/>
+    </row>
+    <row r="45" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2</v>
+      </c>
+      <c r="D45" s="1">
+        <v>2</v>
+      </c>
+      <c r="E45" s="2">
+        <v>6</v>
+      </c>
+      <c r="F45" s="3">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K45" s="32"/>
+      <c r="L45" s="33"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="19"/>
+      <c r="S45" s="20"/>
+      <c r="T45" s="20"/>
+      <c r="U45" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="V45" s="33"/>
+      <c r="W45" s="33"/>
+      <c r="X45" s="33"/>
+      <c r="Y45" s="13"/>
+      <c r="Z45" s="13"/>
+      <c r="AA45" s="5"/>
+      <c r="AB45" s="5"/>
+      <c r="AC45" s="5"/>
+      <c r="AD45" s="5"/>
+      <c r="AE45" s="5"/>
+      <c r="AF45" s="10"/>
+      <c r="AG45" s="10"/>
+      <c r="AH45" s="10"/>
+      <c r="AI45" s="10"/>
+      <c r="AJ45" s="10"/>
+    </row>
+    <row r="46" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="1">
+        <v>3</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2">
+        <v>4</v>
+      </c>
+      <c r="F46" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K46" s="32"/>
+      <c r="L46" s="33"/>
+      <c r="M46" s="33"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="20"/>
+      <c r="S46" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="T46" s="33"/>
+      <c r="U46" s="33"/>
+      <c r="V46" s="33"/>
+      <c r="W46" s="33"/>
+      <c r="X46" s="33"/>
+      <c r="Y46" s="21"/>
+      <c r="Z46" s="21"/>
+      <c r="AA46" s="5"/>
+      <c r="AB46" s="5"/>
+      <c r="AC46" s="5"/>
+      <c r="AD46" s="5"/>
+      <c r="AE46" s="4"/>
+      <c r="AF46" s="10"/>
+      <c r="AG46" s="10"/>
+      <c r="AH46" s="10"/>
+      <c r="AI46" s="30"/>
+      <c r="AJ46" s="10"/>
+    </row>
+    <row r="47" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="1">
+        <v>4</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1</v>
+      </c>
+      <c r="F47" s="3">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="32"/>
+      <c r="L47" s="33"/>
+      <c r="M47" s="33"/>
+      <c r="N47" s="33"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="20"/>
+      <c r="R47" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="S47" s="33"/>
+      <c r="T47" s="33"/>
+      <c r="U47" s="33"/>
+      <c r="V47" s="33"/>
+      <c r="W47" s="33"/>
+      <c r="X47" s="33"/>
+      <c r="Y47" s="13"/>
+      <c r="Z47" s="21"/>
+      <c r="AA47" s="7"/>
+      <c r="AB47" s="7"/>
+      <c r="AC47" s="7"/>
+      <c r="AD47" s="7"/>
+      <c r="AE47" s="4"/>
+      <c r="AF47" s="4"/>
+      <c r="AG47" s="10"/>
+      <c r="AH47" s="10"/>
+      <c r="AI47" s="10"/>
+      <c r="AJ47" s="10"/>
+    </row>
+    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D50" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="37">
+        <f>AVERAGE(E43:E47)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D51" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" s="35">
+        <f>AVERAGE(F43:F47)</f>
+        <v>6.6</v>
       </c>
     </row>
   </sheetData>
@@ -1830,6 +2268,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="9861335f-2f0b-43dd-a468-b0ac7dd8fca1" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b491b4d8-014e-44b4-b681-9b295da05eef">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C8C3AE9BB7BFF84BA470F0C74853C2C7" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="0f32d3d4aae3ce0f3a8d97a3a71522cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b491b4d8-014e-44b4-b681-9b295da05eef" xmlns:ns3="9861335f-2f0b-43dd-a468-b0ac7dd8fca1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="67a649b106131cf4be8d4feff79e2f1d" ns2:_="" ns3:_="">
     <xsd:import namespace="b491b4d8-014e-44b4-b681-9b295da05eef"/>
@@ -2030,27 +2488,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="9861335f-2f0b-43dd-a468-b0ac7dd8fca1" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b491b4d8-014e-44b4-b681-9b295da05eef">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D5C2BA0-6E96-4189-9A7D-84F4944CC447}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{789EA3B7-83C5-42D8-9448-E76DC51CF121}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9861335f-2f0b-43dd-a468-b0ac7dd8fca1"/>
+    <ds:schemaRef ds:uri="b491b4d8-014e-44b4-b681-9b295da05eef"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CB14503-AC8D-49EE-A4D2-47B4217B52FB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2067,23 +2524,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{789EA3B7-83C5-42D8-9448-E76DC51CF121}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9861335f-2f0b-43dd-a468-b0ac7dd8fca1"/>
-    <ds:schemaRef ds:uri="b491b4d8-014e-44b4-b681-9b295da05eef"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D5C2BA0-6E96-4189-9A7D-84F4944CC447}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SI/eval 2/ud4/ejercicio 1.xlsx
+++ b/SI/eval 2/ud4/ejercicio 1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D12562-0F8E-4563-BB96-0CE8E9FD53FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF44D344-7E2D-426C-AD48-CB9D961838F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="28">
   <si>
     <t>FIFO</t>
   </si>
@@ -77,6 +77,33 @@
   </si>
   <si>
     <t>TRetornoMedio=</t>
+  </si>
+  <si>
+    <t>FIFO(quantum 2)</t>
+  </si>
+  <si>
+    <t>SJF(quantum 2)</t>
+  </si>
+  <si>
+    <t>3,2,1</t>
+  </si>
+  <si>
+    <t>5,2,1</t>
+  </si>
+  <si>
+    <t>3,1,2</t>
+  </si>
+  <si>
+    <t>4,5,1,2</t>
+  </si>
+  <si>
+    <t>5,1,2</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>3,4,2,1</t>
   </si>
 </sst>
 </file>
@@ -304,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -361,10 +388,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -373,6 +396,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -677,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AJ51"/>
+  <dimension ref="B1:AJ77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V66" sqref="V66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,8 +721,8 @@
     <col min="4" max="4" width="15.5703125" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
     <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:36" x14ac:dyDescent="0.25">
@@ -1066,19 +1096,19 @@
       <c r="E10" s="12"/>
     </row>
     <row r="12" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E12" s="35">
         <f>AVERAGE(E9,E8,E7,E6,E5)</f>
         <v>4.8</v>
       </c>
     </row>
     <row r="13" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="33">
         <f>AVERAGE(F5:F9)</f>
         <v>7.4</v>
       </c>
@@ -1474,19 +1504,19 @@
       <c r="AJ21" s="13"/>
     </row>
     <row r="24" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="37">
+      <c r="E24" s="35">
         <f>AVERAGE(E17:E21)</f>
         <v>3.8</v>
       </c>
     </row>
     <row r="25" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="35">
+      <c r="E25" s="33">
         <f>AVERAGE(F17:F21)</f>
         <v>6.4</v>
       </c>
@@ -1677,17 +1707,17 @@
       <c r="L31" s="16"/>
       <c r="M31" s="16"/>
       <c r="N31" s="16"/>
-      <c r="O31" s="33" t="s">
+      <c r="O31" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="33"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="33"/>
-      <c r="V31" s="33"/>
-      <c r="W31" s="33"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="17"/>
+      <c r="V31" s="17"/>
+      <c r="W31" s="17"/>
       <c r="X31" s="13"/>
       <c r="Y31" s="13"/>
       <c r="Z31" s="13"/>
@@ -1732,14 +1762,14 @@
       <c r="O32" s="18"/>
       <c r="P32" s="20"/>
       <c r="Q32" s="20"/>
-      <c r="R32" s="33" t="s">
+      <c r="R32" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="S32" s="33"/>
-      <c r="T32" s="33"/>
-      <c r="U32" s="33"/>
-      <c r="V32" s="33"/>
-      <c r="W32" s="33"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="17"/>
+      <c r="W32" s="17"/>
       <c r="X32" s="13"/>
       <c r="Y32" s="13"/>
       <c r="Z32" s="13"/>
@@ -1779,19 +1809,19 @@
       </c>
       <c r="K33" s="22"/>
       <c r="L33" s="13"/>
-      <c r="M33" s="33"/>
+      <c r="M33" s="17"/>
       <c r="N33" s="18"/>
       <c r="O33" s="16"/>
-      <c r="P33" s="33" t="s">
+      <c r="P33" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="33"/>
-      <c r="S33" s="33"/>
-      <c r="T33" s="33"/>
-      <c r="U33" s="33"/>
-      <c r="V33" s="33"/>
-      <c r="W33" s="33"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="17"/>
+      <c r="V33" s="17"/>
+      <c r="W33" s="17"/>
       <c r="X33" s="13"/>
       <c r="Y33" s="21"/>
       <c r="Z33" s="21"/>
@@ -1831,19 +1861,19 @@
       </c>
       <c r="K34" s="22"/>
       <c r="L34" s="13"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="33"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
       <c r="O34" s="19"/>
       <c r="P34" s="19"/>
       <c r="Q34" s="19"/>
       <c r="R34" s="20"/>
       <c r="S34" s="20"/>
-      <c r="T34" s="33" t="s">
+      <c r="T34" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="U34" s="33"/>
-      <c r="V34" s="33"/>
-      <c r="W34" s="33"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="17"/>
+      <c r="W34" s="17"/>
       <c r="X34" s="13"/>
       <c r="Y34" s="13"/>
       <c r="Z34" s="21"/>
@@ -1859,19 +1889,19 @@
       <c r="AJ34" s="10"/>
     </row>
     <row r="37" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="D37" s="36" t="s">
+      <c r="D37" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="37">
+      <c r="E37" s="35">
         <f>AVERAGE(E30:E34)</f>
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="D38" s="34" t="s">
+      <c r="D38" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E38" s="35">
+      <c r="E38" s="33">
         <f>AVERAGE(F30:F34)</f>
         <v>5.6</v>
       </c>
@@ -2014,14 +2044,14 @@
       <c r="P43" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="Q43" s="33"/>
-      <c r="R43" s="33"/>
-      <c r="S43" s="33"/>
-      <c r="T43" s="33"/>
-      <c r="U43" s="33"/>
-      <c r="V43" s="33"/>
-      <c r="W43" s="33"/>
-      <c r="X43" s="33"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="17"/>
+      <c r="S43" s="17"/>
+      <c r="T43" s="17"/>
+      <c r="U43" s="17"/>
+      <c r="V43" s="17"/>
+      <c r="W43" s="17"/>
+      <c r="X43" s="17"/>
       <c r="Y43" s="13"/>
       <c r="Z43" s="13"/>
       <c r="AA43" s="5"/>
@@ -2058,7 +2088,7 @@
       <c r="J44" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K44" s="32"/>
+      <c r="K44" s="27"/>
       <c r="L44" s="19"/>
       <c r="M44" s="19"/>
       <c r="N44" s="19"/>
@@ -2110,8 +2140,8 @@
       <c r="J45" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K45" s="32"/>
-      <c r="L45" s="33"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="17"/>
       <c r="M45" s="19"/>
       <c r="N45" s="19"/>
       <c r="O45" s="19"/>
@@ -2123,9 +2153,9 @@
       <c r="U45" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="V45" s="33"/>
-      <c r="W45" s="33"/>
-      <c r="X45" s="33"/>
+      <c r="V45" s="17"/>
+      <c r="W45" s="17"/>
+      <c r="X45" s="17"/>
       <c r="Y45" s="13"/>
       <c r="Z45" s="13"/>
       <c r="AA45" s="5"/>
@@ -2162,9 +2192,9 @@
       <c r="J46" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K46" s="32"/>
-      <c r="L46" s="33"/>
-      <c r="M46" s="33"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
       <c r="N46" s="19"/>
       <c r="O46" s="19"/>
       <c r="P46" s="19"/>
@@ -2173,11 +2203,11 @@
       <c r="S46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="T46" s="33"/>
-      <c r="U46" s="33"/>
-      <c r="V46" s="33"/>
-      <c r="W46" s="33"/>
-      <c r="X46" s="33"/>
+      <c r="T46" s="17"/>
+      <c r="U46" s="17"/>
+      <c r="V46" s="17"/>
+      <c r="W46" s="17"/>
+      <c r="X46" s="17"/>
       <c r="Y46" s="21"/>
       <c r="Z46" s="21"/>
       <c r="AA46" s="5"/>
@@ -2214,22 +2244,22 @@
       <c r="J47" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K47" s="32"/>
-      <c r="L47" s="33"/>
-      <c r="M47" s="33"/>
-      <c r="N47" s="33"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
       <c r="O47" s="19"/>
       <c r="P47" s="20"/>
       <c r="Q47" s="20"/>
       <c r="R47" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="S47" s="33"/>
-      <c r="T47" s="33"/>
-      <c r="U47" s="33"/>
-      <c r="V47" s="33"/>
-      <c r="W47" s="33"/>
-      <c r="X47" s="33"/>
+      <c r="S47" s="17"/>
+      <c r="T47" s="17"/>
+      <c r="U47" s="17"/>
+      <c r="V47" s="17"/>
+      <c r="W47" s="17"/>
+      <c r="X47" s="17"/>
       <c r="Y47" s="13"/>
       <c r="Z47" s="21"/>
       <c r="AA47" s="7"/>
@@ -2243,51 +2273,845 @@
       <c r="AI47" s="10"/>
       <c r="AJ47" s="10"/>
     </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D50" s="36" t="s">
+    <row r="50" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="D50" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E50" s="37">
+      <c r="E50" s="35">
         <f>AVERAGE(E43:E47)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D51" s="34" t="s">
+    <row r="51" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="D51" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E51" s="35">
+      <c r="E51" s="33">
         <f>AVERAGE(F43:F47)</f>
         <v>6.6</v>
       </c>
     </row>
+    <row r="53" spans="2:36" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="B53" s="9"/>
+      <c r="H53" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+    </row>
+    <row r="55" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B55" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K55" s="1">
+        <v>0</v>
+      </c>
+      <c r="L55" s="29">
+        <v>1</v>
+      </c>
+      <c r="M55" s="29">
+        <v>2</v>
+      </c>
+      <c r="N55" s="29">
+        <v>3</v>
+      </c>
+      <c r="O55" s="29">
+        <v>4</v>
+      </c>
+      <c r="P55" s="29">
+        <v>5</v>
+      </c>
+      <c r="Q55" s="29">
+        <v>6</v>
+      </c>
+      <c r="R55" s="29">
+        <v>7</v>
+      </c>
+      <c r="S55" s="29">
+        <v>8</v>
+      </c>
+      <c r="T55" s="29">
+        <v>9</v>
+      </c>
+      <c r="U55" s="29">
+        <v>10</v>
+      </c>
+      <c r="V55" s="29">
+        <v>11</v>
+      </c>
+      <c r="W55" s="29">
+        <v>12</v>
+      </c>
+      <c r="X55" s="29">
+        <v>13</v>
+      </c>
+      <c r="Y55" s="29">
+        <v>14</v>
+      </c>
+      <c r="Z55" s="29">
+        <v>15</v>
+      </c>
+      <c r="AA55" s="29">
+        <v>16</v>
+      </c>
+      <c r="AB55" s="29">
+        <v>17</v>
+      </c>
+      <c r="AC55" s="29">
+        <v>18</v>
+      </c>
+      <c r="AD55" s="29">
+        <v>19</v>
+      </c>
+      <c r="AE55" s="29">
+        <v>20</v>
+      </c>
+      <c r="AF55" s="29">
+        <v>21</v>
+      </c>
+      <c r="AG55" s="29">
+        <v>22</v>
+      </c>
+      <c r="AH55" s="29">
+        <v>23</v>
+      </c>
+      <c r="AI55" s="29">
+        <v>24</v>
+      </c>
+      <c r="AJ55" s="29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1">
+        <v>5</v>
+      </c>
+      <c r="E56" s="2">
+        <v>8</v>
+      </c>
+      <c r="F56" s="3">
+        <f>E56+D56</f>
+        <v>13</v>
+      </c>
+      <c r="G56" s="1">
+        <v>1</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K56" s="15"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
+      <c r="O56" s="19"/>
+      <c r="P56" s="19"/>
+      <c r="Q56" s="20"/>
+      <c r="R56" s="20"/>
+      <c r="S56" s="19"/>
+      <c r="T56" s="19"/>
+      <c r="U56" s="19"/>
+      <c r="V56" s="19"/>
+      <c r="W56" s="20"/>
+      <c r="X56" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y56" s="13"/>
+      <c r="Z56" s="13"/>
+      <c r="AA56" s="5"/>
+      <c r="AB56" s="5"/>
+      <c r="AC56" s="5"/>
+      <c r="AD56" s="5"/>
+      <c r="AE56" s="5"/>
+      <c r="AF56" s="6"/>
+      <c r="AG56" s="6"/>
+      <c r="AH56" s="6"/>
+      <c r="AI56" s="6"/>
+      <c r="AJ56" s="6"/>
+    </row>
+    <row r="57" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1">
+        <v>3</v>
+      </c>
+      <c r="E57" s="2">
+        <v>7</v>
+      </c>
+      <c r="F57" s="3">
+        <f t="shared" ref="F57:F60" si="3">E57+D57</f>
+        <v>10</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K57" s="37"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="20"/>
+      <c r="O57" s="19"/>
+      <c r="P57" s="19"/>
+      <c r="Q57" s="19"/>
+      <c r="R57" s="19"/>
+      <c r="S57" s="19"/>
+      <c r="T57" s="19"/>
+      <c r="U57" s="19"/>
+      <c r="V57" s="20"/>
+      <c r="W57" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="X57" s="38"/>
+      <c r="Y57" s="13"/>
+      <c r="Z57" s="13"/>
+      <c r="AA57" s="4"/>
+      <c r="AB57" s="5"/>
+      <c r="AC57" s="5"/>
+      <c r="AD57" s="5"/>
+      <c r="AE57" s="5"/>
+      <c r="AF57" s="10"/>
+      <c r="AG57" s="10"/>
+      <c r="AH57" s="10"/>
+      <c r="AI57" s="10"/>
+      <c r="AJ57" s="10"/>
+    </row>
+    <row r="58" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="1">
+        <v>2</v>
+      </c>
+      <c r="D58" s="1">
+        <v>2</v>
+      </c>
+      <c r="E58" s="2">
+        <v>2</v>
+      </c>
+      <c r="F58" s="3">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K58" s="37"/>
+      <c r="L58" s="38"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
+      <c r="O58" s="20"/>
+      <c r="P58" s="20"/>
+      <c r="Q58" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="R58" s="38"/>
+      <c r="S58" s="38"/>
+      <c r="T58" s="38"/>
+      <c r="U58" s="38"/>
+      <c r="V58" s="38"/>
+      <c r="W58" s="38"/>
+      <c r="X58" s="38"/>
+      <c r="Y58" s="13"/>
+      <c r="Z58" s="13"/>
+      <c r="AA58" s="5"/>
+      <c r="AB58" s="5"/>
+      <c r="AC58" s="5"/>
+      <c r="AD58" s="5"/>
+      <c r="AE58" s="5"/>
+      <c r="AF58" s="10"/>
+      <c r="AG58" s="10"/>
+      <c r="AH58" s="10"/>
+      <c r="AI58" s="10"/>
+      <c r="AJ58" s="10"/>
+    </row>
+    <row r="59" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="1">
+        <v>3</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1</v>
+      </c>
+      <c r="E59" s="2">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K59" s="37"/>
+      <c r="L59" s="38"/>
+      <c r="M59" s="38"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="19"/>
+      <c r="P59" s="19"/>
+      <c r="Q59" s="19"/>
+      <c r="R59" s="19"/>
+      <c r="S59" s="20"/>
+      <c r="T59" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="U59" s="38"/>
+      <c r="V59" s="38"/>
+      <c r="W59" s="38"/>
+      <c r="X59" s="38"/>
+      <c r="Y59" s="21"/>
+      <c r="Z59" s="21"/>
+      <c r="AA59" s="5"/>
+      <c r="AB59" s="5"/>
+      <c r="AC59" s="5"/>
+      <c r="AD59" s="5"/>
+      <c r="AE59" s="4"/>
+      <c r="AF59" s="10"/>
+      <c r="AG59" s="10"/>
+      <c r="AH59" s="10"/>
+      <c r="AI59" s="30"/>
+      <c r="AJ59" s="10"/>
+    </row>
+    <row r="60" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="1">
+        <v>4</v>
+      </c>
+      <c r="D60" s="1">
+        <v>2</v>
+      </c>
+      <c r="E60" s="2">
+        <v>5</v>
+      </c>
+      <c r="F60" s="3">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" s="37"/>
+      <c r="L60" s="38"/>
+      <c r="M60" s="38"/>
+      <c r="N60" s="38"/>
+      <c r="O60" s="19"/>
+      <c r="P60" s="19"/>
+      <c r="Q60" s="19"/>
+      <c r="R60" s="19"/>
+      <c r="S60" s="19"/>
+      <c r="T60" s="20"/>
+      <c r="U60" s="20"/>
+      <c r="V60" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="W60" s="38"/>
+      <c r="X60" s="38"/>
+      <c r="Y60" s="13"/>
+      <c r="Z60" s="21"/>
+      <c r="AA60" s="7"/>
+      <c r="AB60" s="7"/>
+      <c r="AC60" s="7"/>
+      <c r="AD60" s="7"/>
+      <c r="AE60" s="4"/>
+      <c r="AF60" s="4"/>
+      <c r="AG60" s="10"/>
+      <c r="AH60" s="10"/>
+      <c r="AI60" s="10"/>
+      <c r="AJ60" s="10"/>
+    </row>
+    <row r="61" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>2.1</v>
+      </c>
+      <c r="O61" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>24</v>
+      </c>
+      <c r="R61" t="s">
+        <v>25</v>
+      </c>
+      <c r="T61">
+        <v>1.2</v>
+      </c>
+      <c r="V61">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="D63" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" s="35">
+        <f>AVERAGE(E56:E60)</f>
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="64" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="D64" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" s="33">
+        <f>AVERAGE(F56:F60)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="2:36" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="B66" s="9"/>
+      <c r="H66" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I66" s="36"/>
+      <c r="J66" s="36"/>
+    </row>
+    <row r="68" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B68" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F68" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J68" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K68" s="1">
+        <v>0</v>
+      </c>
+      <c r="L68" s="29">
+        <v>1</v>
+      </c>
+      <c r="M68" s="29">
+        <v>2</v>
+      </c>
+      <c r="N68" s="29">
+        <v>3</v>
+      </c>
+      <c r="O68" s="29">
+        <v>4</v>
+      </c>
+      <c r="P68" s="29">
+        <v>5</v>
+      </c>
+      <c r="Q68" s="29">
+        <v>6</v>
+      </c>
+      <c r="R68" s="29">
+        <v>7</v>
+      </c>
+      <c r="S68" s="29">
+        <v>8</v>
+      </c>
+      <c r="T68" s="29">
+        <v>9</v>
+      </c>
+      <c r="U68" s="29">
+        <v>10</v>
+      </c>
+      <c r="V68" s="29">
+        <v>11</v>
+      </c>
+      <c r="W68" s="29">
+        <v>12</v>
+      </c>
+      <c r="X68" s="29">
+        <v>13</v>
+      </c>
+      <c r="Y68" s="29">
+        <v>14</v>
+      </c>
+      <c r="Z68" s="29">
+        <v>15</v>
+      </c>
+      <c r="AA68" s="29">
+        <v>16</v>
+      </c>
+      <c r="AB68" s="29">
+        <v>17</v>
+      </c>
+      <c r="AC68" s="29">
+        <v>18</v>
+      </c>
+      <c r="AD68" s="29">
+        <v>19</v>
+      </c>
+      <c r="AE68" s="29">
+        <v>20</v>
+      </c>
+      <c r="AF68" s="29">
+        <v>21</v>
+      </c>
+      <c r="AG68" s="29">
+        <v>22</v>
+      </c>
+      <c r="AH68" s="29">
+        <v>23</v>
+      </c>
+      <c r="AI68" s="29">
+        <v>24</v>
+      </c>
+      <c r="AJ68" s="29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0</v>
+      </c>
+      <c r="D69" s="1">
+        <v>5</v>
+      </c>
+      <c r="E69" s="2">
+        <v>8</v>
+      </c>
+      <c r="F69" s="3">
+        <f>E69+D69</f>
+        <v>13</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K69" s="15"/>
+      <c r="L69" s="20"/>
+      <c r="M69" s="19"/>
+      <c r="N69" s="19"/>
+      <c r="O69" s="19"/>
+      <c r="P69" s="19"/>
+      <c r="Q69" s="19"/>
+      <c r="R69" s="19"/>
+      <c r="S69" s="19"/>
+      <c r="T69" s="20"/>
+      <c r="U69" s="20"/>
+      <c r="V69" s="19"/>
+      <c r="W69" s="20"/>
+      <c r="X69" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y69" s="13"/>
+      <c r="Z69" s="13"/>
+      <c r="AA69" s="5"/>
+      <c r="AB69" s="5"/>
+      <c r="AC69" s="5"/>
+      <c r="AD69" s="5"/>
+      <c r="AE69" s="5"/>
+      <c r="AF69" s="6"/>
+      <c r="AG69" s="6"/>
+      <c r="AH69" s="6"/>
+      <c r="AI69" s="6"/>
+      <c r="AJ69" s="6"/>
+    </row>
+    <row r="70" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1</v>
+      </c>
+      <c r="D70" s="1">
+        <v>3</v>
+      </c>
+      <c r="E70" s="2">
+        <v>8</v>
+      </c>
+      <c r="F70" s="3">
+        <f t="shared" ref="F70:F73" si="4">E70+D70</f>
+        <v>11</v>
+      </c>
+      <c r="G70" s="1">
+        <v>1</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K70" s="37"/>
+      <c r="L70" s="19"/>
+      <c r="M70" s="19"/>
+      <c r="N70" s="19"/>
+      <c r="O70" s="19"/>
+      <c r="P70" s="19"/>
+      <c r="Q70" s="19"/>
+      <c r="R70" s="20"/>
+      <c r="S70" s="20"/>
+      <c r="T70" s="19"/>
+      <c r="U70" s="19"/>
+      <c r="V70" s="20"/>
+      <c r="W70" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="X70" s="38"/>
+      <c r="Y70" s="13"/>
+      <c r="Z70" s="13"/>
+      <c r="AA70" s="4"/>
+      <c r="AB70" s="5"/>
+      <c r="AC70" s="5"/>
+      <c r="AD70" s="5"/>
+      <c r="AE70" s="5"/>
+      <c r="AF70" s="10"/>
+      <c r="AG70" s="10"/>
+      <c r="AH70" s="10"/>
+      <c r="AI70" s="10"/>
+      <c r="AJ70" s="10"/>
+    </row>
+    <row r="71" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="1">
+        <v>2</v>
+      </c>
+      <c r="D71" s="1">
+        <v>2</v>
+      </c>
+      <c r="E71" s="2">
+        <v>0</v>
+      </c>
+      <c r="F71" s="3">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G71" s="1">
+        <v>1</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K71" s="37"/>
+      <c r="L71" s="38"/>
+      <c r="M71" s="15"/>
+      <c r="N71" s="20"/>
+      <c r="O71" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="P71" s="38"/>
+      <c r="Q71" s="38"/>
+      <c r="R71" s="38"/>
+      <c r="S71" s="38"/>
+      <c r="T71" s="38"/>
+      <c r="U71" s="38"/>
+      <c r="V71" s="38"/>
+      <c r="W71" s="38"/>
+      <c r="X71" s="38"/>
+      <c r="Y71" s="13"/>
+      <c r="Z71" s="13"/>
+      <c r="AA71" s="5"/>
+      <c r="AB71" s="5"/>
+      <c r="AC71" s="5"/>
+      <c r="AD71" s="5"/>
+      <c r="AE71" s="5"/>
+      <c r="AF71" s="10"/>
+      <c r="AG71" s="10"/>
+      <c r="AH71" s="10"/>
+      <c r="AI71" s="10"/>
+      <c r="AJ71" s="10"/>
+    </row>
+    <row r="72" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="1">
+        <v>3</v>
+      </c>
+      <c r="D72" s="1">
+        <v>1</v>
+      </c>
+      <c r="E72" s="2">
+        <v>1</v>
+      </c>
+      <c r="F72" s="3">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G72" s="1">
+        <v>1</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K72" s="37"/>
+      <c r="M72" s="38"/>
+      <c r="N72" s="19"/>
+      <c r="O72" s="20"/>
+      <c r="P72" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q72" s="38"/>
+      <c r="R72" s="38"/>
+      <c r="S72" s="38"/>
+      <c r="T72" s="38"/>
+      <c r="U72" s="38"/>
+      <c r="V72" s="38"/>
+      <c r="W72" s="38"/>
+      <c r="X72" s="38"/>
+      <c r="Y72" s="21"/>
+      <c r="Z72" s="21"/>
+      <c r="AA72" s="5"/>
+      <c r="AB72" s="5"/>
+      <c r="AC72" s="5"/>
+      <c r="AD72" s="5"/>
+      <c r="AE72" s="4"/>
+      <c r="AF72" s="10"/>
+      <c r="AG72" s="10"/>
+      <c r="AH72" s="10"/>
+      <c r="AI72" s="30"/>
+      <c r="AJ72" s="10"/>
+    </row>
+    <row r="73" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="1">
+        <v>4</v>
+      </c>
+      <c r="D73" s="1">
+        <v>2</v>
+      </c>
+      <c r="E73" s="2">
+        <v>1</v>
+      </c>
+      <c r="F73" s="3">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="G73" s="1">
+        <v>1</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K73" s="37"/>
+      <c r="L73" s="38"/>
+      <c r="M73" s="38"/>
+      <c r="N73" s="38"/>
+      <c r="O73" s="19"/>
+      <c r="P73" s="20"/>
+      <c r="Q73" s="20"/>
+      <c r="R73" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="S73" s="38"/>
+      <c r="T73" s="38"/>
+      <c r="U73" s="38"/>
+      <c r="V73" s="38"/>
+      <c r="W73" s="38"/>
+      <c r="X73" s="38"/>
+      <c r="Y73" s="13"/>
+      <c r="Z73" s="21"/>
+      <c r="AA73" s="7"/>
+      <c r="AB73" s="7"/>
+      <c r="AC73" s="7"/>
+      <c r="AD73" s="7"/>
+      <c r="AE73" s="4"/>
+      <c r="AF73" s="4"/>
+      <c r="AG73" s="10"/>
+      <c r="AH73" s="10"/>
+      <c r="AI73" s="10"/>
+      <c r="AJ73" s="10"/>
+    </row>
+    <row r="74" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="L74">
+        <v>1.2</v>
+      </c>
+      <c r="M74" t="s">
+        <v>21</v>
+      </c>
+      <c r="N74" t="s">
+        <v>27</v>
+      </c>
+      <c r="O74" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="D76" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" s="35">
+        <f>AVERAGE(E69:E73)</f>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="77" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="D77" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77" s="33">
+        <f>AVERAGE(F69:F73)</f>
+        <v>6.2</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H66:J66"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="9861335f-2f0b-43dd-a468-b0ac7dd8fca1" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b491b4d8-014e-44b4-b681-9b295da05eef">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C8C3AE9BB7BFF84BA470F0C74853C2C7" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="0f32d3d4aae3ce0f3a8d97a3a71522cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b491b4d8-014e-44b4-b681-9b295da05eef" xmlns:ns3="9861335f-2f0b-43dd-a468-b0ac7dd8fca1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="67a649b106131cf4be8d4feff79e2f1d" ns2:_="" ns3:_="">
     <xsd:import namespace="b491b4d8-014e-44b4-b681-9b295da05eef"/>
@@ -2488,10 +3312,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="9861335f-2f0b-43dd-a468-b0ac7dd8fca1" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b491b4d8-014e-44b4-b681-9b295da05eef">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D5C2BA0-6E96-4189-9A7D-84F4944CC447}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CB14503-AC8D-49EE-A4D2-47B4217B52FB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b491b4d8-014e-44b4-b681-9b295da05eef"/>
+    <ds:schemaRef ds:uri="9861335f-2f0b-43dd-a468-b0ac7dd8fca1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2508,20 +3363,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CB14503-AC8D-49EE-A4D2-47B4217B52FB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D5C2BA0-6E96-4189-9A7D-84F4944CC447}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b491b4d8-014e-44b4-b681-9b295da05eef"/>
-    <ds:schemaRef ds:uri="9861335f-2f0b-43dd-a468-b0ac7dd8fca1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>